--- a/test1merge.xlsx
+++ b/test1merge.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merged" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1-Merged" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>

--- a/test1merge.xlsx
+++ b/test1merge.xlsx
@@ -4,11 +4,10 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1-Merged" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -500,13 +499,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="6">
       <c r="A1" s="7" t="inlineStr">
@@ -518,21 +517,21 @@
     <row r="2" ht="12.8" customHeight="1" s="6">
       <c r="A2" s="8" t="inlineStr">
         <is>
-          <t>Diff test: ./xltablediff.py --newSheet=Sheet2 --key=ID test1in.xlsx test1in.xlsx --out test1diff.xlsx</t>
+          <t>Diff test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
         </is>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="6">
       <c r="A3" s="8" t="inlineStr">
         <is>
-          <t>Merge test: ./xltablediff.py --newSheet=Sheet2 --key=ID test1in.xlsx test1in.xlsx --merge=Color --out test1merge.xlsx</t>
+          <t>Merge test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --merge=Color --out test1merge.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="6">
       <c r="A4" s="8" t="inlineStr">
         <is>
-          <t>Apend test: ./xltablediff.py --newSheet=Sheet2 --key=ID test1in.xlsx test1in.xlsx --append --out test1append.xlsx</t>
+          <t>Append test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --append --out test1append.xlsx</t>
         </is>
       </c>
     </row>
@@ -821,14 +820,7 @@
     <row r="18" ht="12.8" customHeight="1" s="6">
       <c r="F18" s="12" t="n"/>
     </row>
-    <row r="19" ht="12.8" customHeight="1" s="6">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Trailing row here</t>
-        </is>
-      </c>
-      <c r="F19" s="12" t="n"/>
-    </row>
+    <row r="19" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -842,289 +834,4 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>Example TableNew</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="6">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Diff test: ./xltablediff.py --newSheet=Sheet2 --key=ID test1in.xlsx test1in.xlsx --out test1diff.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="6">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Merge test: ./xltablediff.py --newSheet=Sheet2 --key=ID test1in.xlsx test1in.xlsx --merge=Color --out test1merge.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="6">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>Apend test: ./xltablediff.py --newSheet=Sheet2 --key=ID test1in.xlsx test1in.xlsx --append --out test1append.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Fruit</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>Shape</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="12.8" customHeight="1" s="6">
-      <c r="A7" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>apricot</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>roundish</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>red-orange</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" s="6">
-      <c r="A8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>grapes</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>pebbles</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="12.8" customHeight="1" s="6">
-      <c r="A9" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>peach</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>roundish</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>yellow-pink</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" s="6">
-      <c r="A10" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>mango</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>oval</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="12.8" customHeight="1" s="6">
-      <c r="A11" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>plum</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>round</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="12.8" customHeight="1" s="6">
-      <c r="A12" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>tangerine</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>round</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>orange</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="12.8" customHeight="1" s="6">
-      <c r="A13" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>pineapple</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>spikey</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>green-yellow</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="12.8" customHeight="1" s="6">
-      <c r="A14" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>dried mango</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>flat</t>
-        </is>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="E14" s="8" t="n"/>
-    </row>
-    <row r="15" ht="12.8" customHeight="1" s="6">
-      <c r="A15" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>persimmon</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>acorn</t>
-        </is>
-      </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>deep orange</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="n"/>
-    </row>
-    <row r="16" ht="12.8" customHeight="1" s="6">
-      <c r="A16" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>papaya</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>elongated</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>salmon</t>
-        </is>
-      </c>
-      <c r="E16" s="12" t="n"/>
-    </row>
-    <row r="17" ht="12.8" customHeight="1" s="6">
-      <c r="E17" s="12" t="n"/>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/test1merge.xlsx
+++ b/test1merge.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -47,6 +47,11 @@
       <family val="2"/>
       <b val="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="5">
@@ -92,7 +97,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -100,6 +105,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -116,6 +124,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -502,325 +513,340 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Example TableOld</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="6">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Diff test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="6">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Merge test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --merge=Color --out test1merge.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="6">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>Append test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --append --out test1append.xlsx</t>
+    <row r="2" ht="12.8" customHeight="1" s="7">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>Diff test:</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>xltablediff.py  --key ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="7">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>Merge test:</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>xltablediff.py  --key ID --merge Color test1old.xlsx test1new.xlsx --out test1merge.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="7">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>Append test:</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>xltablediff.py  --key ID --append test1old.xlsx test1new.xlsx --out test1append.xlsx</t>
         </is>
       </c>
     </row>
     <row r="5"/>
-    <row r="6" ht="12.8" customHeight="1" s="6">
-      <c r="A6" s="8" t="inlineStr">
+    <row r="6" ht="12.8" customHeight="1" s="7">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Fruit</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Origin</t>
         </is>
       </c>
-      <c r="E6" s="8" t="inlineStr">
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" s="6">
-      <c r="A7" s="9" t="n">
+    <row r="7" ht="12.8" customHeight="1" s="7">
+      <c r="A7" s="11" t="n">
         <v>44866</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>apricot</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t>Washington</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>red-orange</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" s="6">
-      <c r="A8" s="9" t="n">
+    <row r="8" ht="12.8" customHeight="1" s="7">
+      <c r="A8" s="11" t="n">
         <v>44866</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>apple</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>Maine</t>
         </is>
       </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="6">
-      <c r="A9" s="9" t="n">
+    <row r="9" ht="12.8" customHeight="1" s="7">
+      <c r="A9" s="11" t="n">
         <v>44867</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>peach</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>yellow-pink</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" s="6">
-      <c r="A10" s="9" t="n">
+    <row r="10" ht="12.8" customHeight="1" s="7">
+      <c r="A10" s="11" t="n">
         <v>44867</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>papaya</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Fiji</t>
         </is>
       </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="E10" s="12" t="inlineStr">
         <is>
           <t>salmon</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" s="6">
-      <c r="A11" s="9" t="n">
+    <row r="11" ht="12.8" customHeight="1" s="7">
+      <c r="A11" s="11" t="n">
         <v>44868</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>plum</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>Alabama</t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" s="6">
-      <c r="A12" s="9" t="n">
+    <row r="12" ht="12.8" customHeight="1" s="7">
+      <c r="A12" s="11" t="n">
         <v>44870</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>banana</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="D12" s="9" t="inlineStr">
         <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="E12" s="9" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="12.8" customHeight="1" s="6">
-      <c r="A13" s="9" t="n">
+    <row r="13" ht="12.8" customHeight="1" s="7">
+      <c r="A13" s="11" t="n">
         <v>44870</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>pineapple</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D13" s="9" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="E13" s="8" t="inlineStr">
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>green-yellow</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="12.8" customHeight="1" s="6">
-      <c r="A14" s="9" t="n">
+    <row r="14" ht="12.8" customHeight="1" s="7">
+      <c r="A14" s="11" t="n">
         <v>44871</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>tangerine</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D14" s="9" t="inlineStr">
         <is>
           <t>California</t>
         </is>
       </c>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="12.8" customHeight="1" s="6">
-      <c r="A15" s="9" t="n">
+    <row r="15" ht="12.8" customHeight="1" s="7">
+      <c r="A15" s="11" t="n">
         <v>44872</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>persimmon</t>
         </is>
       </c>
-      <c r="D15" s="8" t="inlineStr">
+      <c r="D15" s="9" t="inlineStr">
         <is>
           <t>Iran</t>
         </is>
       </c>
-      <c r="E15" s="8" t="inlineStr">
+      <c r="E15" s="9" t="inlineStr">
         <is>
           <t>deep orange</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="12.8" customHeight="1" s="6">
-      <c r="A16" s="9" t="n">
+    <row r="16" ht="12.8" customHeight="1" s="7">
+      <c r="A16" s="11" t="n">
         <v>44885</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>coconut</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="D16" s="9" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="E16" s="8" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="12.8" customHeight="1" s="6">
-      <c r="A17" s="9" t="n">
+    <row r="17" ht="12.8" customHeight="1" s="7">
+      <c r="A17" s="11" t="n">
         <v>44886</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>dried mango</t>
         </is>
       </c>
-      <c r="D17" s="8" t="inlineStr">
+      <c r="D17" s="9" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="E17" s="11" t="inlineStr">
+      <c r="E17" s="13" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="F17" s="8" t="n"/>
-    </row>
-    <row r="18" ht="12.8" customHeight="1" s="6">
-      <c r="F18" s="12" t="n"/>
-    </row>
-    <row r="19" ht="12.8" customHeight="1" s="6"/>
+      <c r="F17" s="9" t="n"/>
+    </row>
+    <row r="18" ht="12.8" customHeight="1" s="7">
+      <c r="F18" s="14" t="n"/>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/test1merge.xlsx
+++ b/test1merge.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -47,11 +47,6 @@
       <family val="2"/>
       <b val="1"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="5">
@@ -97,7 +92,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -105,9 +100,6 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -124,9 +116,6 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -510,343 +499,355 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="7">
-      <c r="A1" s="8" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Example TableOld</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="7">
-      <c r="A2" s="9" t="inlineStr">
+    <row r="2" ht="12.8" customHeight="1" s="6">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>Diff test:</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="7">
-      <c r="A3" s="9" t="inlineStr">
+    <row r="3" ht="12.8" customHeight="1" s="6">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Ignore test:</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>xltablediff.py  --key ID --ignore Color test1old.xlsx test1new.xlsx --out test1ignore.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="6">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>Merge test:</t>
         </is>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --merge Color test1old.xlsx test1new.xlsx --out test1merge.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="7">
-      <c r="A4" s="9" t="inlineStr">
+    <row r="5" ht="12.8" customHeight="1" s="6">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>Append test:</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --append test1old.xlsx test1new.xlsx --out test1append.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6" ht="12.8" customHeight="1" s="7">
-      <c r="A6" s="9" t="inlineStr">
+    <row r="6"/>
+    <row r="7" ht="12.8" customHeight="1" s="6">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>Fruit</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>Origin</t>
         </is>
       </c>
-      <c r="E6" s="9" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" s="7">
-      <c r="A7" s="11" t="n">
+    <row r="8" ht="12.8" customHeight="1" s="6">
+      <c r="A8" s="9" t="n">
         <v>44866</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B8" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>apricot</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Washington</t>
         </is>
       </c>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>red-orange</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" s="7">
-      <c r="A8" s="11" t="n">
+    <row r="9" ht="12.8" customHeight="1" s="6">
+      <c r="A9" s="9" t="n">
         <v>44866</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>apple</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t>Maine</t>
         </is>
       </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="7">
-      <c r="A9" s="11" t="n">
+    <row r="10" ht="12.8" customHeight="1" s="6">
+      <c r="A10" s="9" t="n">
         <v>44867</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B10" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>peach</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="E10" s="8" t="inlineStr">
         <is>
           <t>yellow-pink</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" s="7">
-      <c r="A10" s="11" t="n">
+    <row r="11" ht="12.8" customHeight="1" s="6">
+      <c r="A11" s="9" t="n">
         <v>44867</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B11" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>papaya</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>Fiji</t>
         </is>
       </c>
-      <c r="E10" s="12" t="inlineStr">
+      <c r="E11" s="10" t="inlineStr">
         <is>
           <t>salmon</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" s="7">
-      <c r="A11" s="11" t="n">
+    <row r="12" ht="12.8" customHeight="1" s="6">
+      <c r="A12" s="9" t="n">
         <v>44868</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B12" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>plum</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
+      <c r="D12" s="8" t="inlineStr">
         <is>
           <t>Alabama</t>
         </is>
       </c>
-      <c r="E11" s="9" t="inlineStr">
+      <c r="E12" s="8" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" s="7">
-      <c r="A12" s="11" t="n">
+    <row r="13" ht="12.8" customHeight="1" s="6">
+      <c r="A13" s="9" t="n">
         <v>44870</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B13" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>banana</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
+      <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="E13" s="8" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="12.8" customHeight="1" s="7">
-      <c r="A13" s="11" t="n">
+    <row r="14" ht="12.8" customHeight="1" s="6">
+      <c r="A14" s="9" t="n">
         <v>44870</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B14" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>pineapple</t>
         </is>
       </c>
-      <c r="D13" s="9" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="E13" s="9" t="inlineStr">
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>green-yellow</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="12.8" customHeight="1" s="7">
-      <c r="A14" s="11" t="n">
+    <row r="15" ht="12.8" customHeight="1" s="6">
+      <c r="A15" s="9" t="n">
         <v>44871</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B15" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>tangerine</t>
         </is>
       </c>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>California</t>
         </is>
       </c>
-      <c r="E14" s="9" t="inlineStr">
+      <c r="E15" s="8" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="12.8" customHeight="1" s="7">
-      <c r="A15" s="11" t="n">
+    <row r="16" ht="12.8" customHeight="1" s="6">
+      <c r="A16" s="9" t="n">
         <v>44872</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B16" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="C16" s="8" t="inlineStr">
         <is>
           <t>persimmon</t>
         </is>
       </c>
-      <c r="D15" s="9" t="inlineStr">
+      <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Iran</t>
         </is>
       </c>
-      <c r="E15" s="9" t="inlineStr">
+      <c r="E16" s="8" t="inlineStr">
         <is>
           <t>deep orange</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="12.8" customHeight="1" s="7">
-      <c r="A16" s="11" t="n">
+    <row r="17" ht="12.8" customHeight="1" s="6">
+      <c r="A17" s="9" t="n">
         <v>44885</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B17" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="C16" s="9" t="inlineStr">
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t>coconut</t>
         </is>
       </c>
-      <c r="D16" s="9" t="inlineStr">
+      <c r="D17" s="8" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="E16" s="9" t="inlineStr">
+      <c r="E17" s="8" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="12.8" customHeight="1" s="7">
-      <c r="A17" s="11" t="n">
+    <row r="18" ht="12.8" customHeight="1" s="6">
+      <c r="A18" s="9" t="n">
         <v>44886</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B18" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="C17" s="9" t="inlineStr">
+      <c r="C18" s="8" t="inlineStr">
         <is>
           <t>dried mango</t>
         </is>
       </c>
-      <c r="D17" s="9" t="inlineStr">
+      <c r="D18" s="8" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="E17" s="13" t="inlineStr">
+      <c r="E18" s="11" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="F17" s="9" t="n"/>
-    </row>
-    <row r="18" ht="12.8" customHeight="1" s="7">
-      <c r="F18" s="14" t="n"/>
-    </row>
-    <row r="19" ht="12.8" customHeight="1" s="7"/>
+      <c r="F18" s="8" t="n"/>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="6">
+      <c r="F19" s="12" t="n"/>
+    </row>
+    <row r="20" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/test1merge.xlsx
+++ b/test1merge.xlsx
@@ -49,12 +49,18 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDF7CAA"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -92,7 +98,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -109,6 +115,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -121,13 +130,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -141,70 +150,62 @@
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFDF7CAA"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -499,355 +500,358 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B3"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Example TableOld</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="6">
-      <c r="A2" s="8" t="inlineStr">
+    <row r="2" ht="12.8" customHeight="1" s="7">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>Diff test:</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="6">
-      <c r="A3" s="8" t="inlineStr">
+    <row r="3" ht="12.8" customHeight="1" s="7">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>Ignore test:</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --ignore Color test1old.xlsx test1new.xlsx --out test1ignore.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="6">
-      <c r="A4" s="8" t="inlineStr">
+    <row r="4" ht="12.8" customHeight="1" s="7">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>Merge test:</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --merge Color test1old.xlsx test1new.xlsx --out test1merge.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="6">
-      <c r="A5" s="8" t="inlineStr">
+    <row r="5" ht="12.8" customHeight="1" s="7">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>Append test:</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --append test1old.xlsx test1new.xlsx --out test1append.xlsx</t>
         </is>
       </c>
     </row>
     <row r="6"/>
-    <row r="7" ht="12.8" customHeight="1" s="6">
-      <c r="A7" s="8" t="inlineStr">
+    <row r="7" ht="12.8" customHeight="1" s="7">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Fruit</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t>Origin</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" s="6">
-      <c r="A8" s="9" t="n">
+    <row r="8" ht="12.8" customHeight="1" s="7">
+      <c r="A8" s="10" t="n">
         <v>44866</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>apricot</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>Washington</t>
         </is>
       </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>red-orange</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="6">
-      <c r="A9" s="9" t="n">
+    <row r="9" ht="12.8" customHeight="1" s="7">
+      <c r="A9" s="10" t="n">
         <v>44866</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>apple</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>Maine</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" s="6">
-      <c r="A10" s="9" t="n">
+    <row r="10" ht="12.8" customHeight="1" s="7">
+      <c r="A10" s="10" t="n">
         <v>44867</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>peach</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>yellow-pink</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" s="6">
-      <c r="A11" s="9" t="n">
+    <row r="11" ht="12.8" customHeight="1" s="7">
+      <c r="A11" s="10" t="n">
         <v>44867</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>papaya</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>Fiji</t>
         </is>
       </c>
-      <c r="E11" s="10" t="inlineStr">
+      <c r="E11" s="11" t="inlineStr">
         <is>
           <t>salmon</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" s="6">
-      <c r="A12" s="9" t="n">
+    <row r="12" ht="12.8" customHeight="1" s="7">
+      <c r="A12" s="10" t="n">
         <v>44868</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="12" t="inlineStr">
         <is>
           <t>plum</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="D12" s="9" t="inlineStr">
         <is>
           <t>Alabama</t>
         </is>
       </c>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="E12" s="9" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="12.8" customHeight="1" s="6">
-      <c r="A13" s="9" t="n">
+    <row r="13" ht="12.8" customHeight="1" s="7">
+      <c r="A13" s="10" t="n">
         <v>44870</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>banana</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D13" s="9" t="inlineStr">
         <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="E13" s="8" t="inlineStr">
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="12.8" customHeight="1" s="6">
-      <c r="A14" s="9" t="n">
+    <row r="14" ht="12.8" customHeight="1" s="7">
+      <c r="A14" s="10" t="n">
         <v>44870</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>pineapple</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D14" s="9" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>green-yellow</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="12.8" customHeight="1" s="6">
-      <c r="A15" s="9" t="n">
+    <row r="15" ht="12.8" customHeight="1" s="7">
+      <c r="A15" s="10" t="n">
         <v>44871</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>tangerine</t>
         </is>
       </c>
-      <c r="D15" s="8" t="inlineStr">
+      <c r="D15" s="9" t="inlineStr">
         <is>
           <t>California</t>
         </is>
       </c>
-      <c r="E15" s="8" t="inlineStr">
+      <c r="E15" s="9" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="12.8" customHeight="1" s="6">
-      <c r="A16" s="9" t="n">
+    <row r="16" ht="12.8" customHeight="1" s="7">
+      <c r="A16" s="10" t="n">
         <v>44872</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>persimmon</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="D16" s="9" t="inlineStr">
         <is>
           <t>Iran</t>
         </is>
       </c>
-      <c r="E16" s="8" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>deep orange</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="12.8" customHeight="1" s="6">
-      <c r="A17" s="9" t="n">
+    <row r="17" ht="12.8" customHeight="1" s="7">
+      <c r="A17" s="10" t="n">
         <v>44885</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>coconut</t>
         </is>
       </c>
-      <c r="D17" s="8" t="inlineStr">
+      <c r="D17" s="9" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="E17" s="8" t="inlineStr">
+      <c r="E17" s="9" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="12.8" customHeight="1" s="6">
-      <c r="A18" s="9" t="n">
+    <row r="18" ht="12.8" customHeight="1" s="7">
+      <c r="A18" s="10" t="n">
         <v>44886</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>dried mango</t>
         </is>
       </c>
-      <c r="D18" s="8" t="inlineStr">
+      <c r="D18" s="9" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="E18" s="11" t="inlineStr">
+      <c r="E18" s="13" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="F18" s="8" t="n"/>
-    </row>
-    <row r="19" ht="12.8" customHeight="1" s="6">
-      <c r="F19" s="12" t="n"/>
-    </row>
-    <row r="20" ht="12.8" customHeight="1" s="6"/>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="7"/>
+    <row r="20" ht="12.8" customHeight="1" s="7">
+      <c r="A20" s="9" t="inlineStr">
+        <is>
+          <t>Trailing row here</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/test1merge.xlsx
+++ b/test1merge.xlsx
@@ -49,12 +49,24 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -98,7 +110,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -108,16 +120,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -127,16 +151,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -500,353 +530,365 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="7">
-      <c r="A1" s="8" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="11">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>Example TableOld</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="7">
-      <c r="A2" s="9" t="inlineStr">
+    <row r="2" ht="12.8" customHeight="1" s="11">
+      <c r="A2" s="13" t="inlineStr">
         <is>
           <t>Diff test:</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="7">
-      <c r="A3" s="9" t="inlineStr">
+    <row r="3" ht="12.8" customHeight="1" s="11">
+      <c r="A3" s="13" t="inlineStr">
         <is>
           <t>Ignore test:</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --ignore Color test1old.xlsx test1new.xlsx --out test1ignore.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="7">
-      <c r="A4" s="9" t="inlineStr">
+    <row r="4" ht="12.8" customHeight="1" s="11">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>Merge test:</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="13" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --merge Color test1old.xlsx test1new.xlsx --out test1merge.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="7">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t>Append test:</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>xltablediff.py  --key ID --append test1old.xlsx test1new.xlsx --out test1append.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7" ht="12.8" customHeight="1" s="7">
-      <c r="A7" s="9" t="inlineStr">
+    <row r="5" ht="12.8" customHeight="1" s="11">
+      <c r="A5" s="13" t="inlineStr">
+        <is>
+          <t>oldAppend test:</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>xltablediff.py  --key ID --oldAppend test1old.xlsx test1new.xlsx --out test1oldAppend.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="11">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>newAppend test:</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>xltablediff.py  --key ID --newAppend test1old.xlsx test1new.xlsx --out test1newAppend.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8" ht="12.8" customHeight="1" s="11">
+      <c r="A8" s="13" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C8" s="13" t="inlineStr">
         <is>
           <t>Fruit</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
+      <c r="D8" s="13" t="inlineStr">
         <is>
           <t>Origin</t>
         </is>
       </c>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="E8" s="13" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" s="7">
-      <c r="A8" s="10" t="n">
+    <row r="9" ht="12.8" customHeight="1" s="11">
+      <c r="A9" s="16" t="n">
         <v>44866</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B9" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C9" s="13" t="inlineStr">
         <is>
           <t>apricot</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
+      <c r="D9" s="13" t="inlineStr">
         <is>
           <t>Washington</t>
         </is>
       </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="E9" s="13" t="inlineStr">
         <is>
           <t>red-orange</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="7">
-      <c r="A9" s="10" t="n">
+    <row r="10" ht="12.8" customHeight="1" s="11">
+      <c r="A10" s="16" t="n">
         <v>44866</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B10" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C10" s="13" t="inlineStr">
         <is>
           <t>apple</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D10" s="13" t="inlineStr">
         <is>
           <t>Maine</t>
         </is>
       </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="E10" s="13" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" s="7">
-      <c r="A10" s="10" t="n">
+    <row r="11" ht="12.8" customHeight="1" s="11">
+      <c r="A11" s="16" t="n">
         <v>44867</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B11" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C11" s="13" t="inlineStr">
         <is>
           <t>peach</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="D11" s="13" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="E11" s="13" t="inlineStr">
         <is>
           <t>yellow-pink</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" s="7">
-      <c r="A11" s="10" t="n">
+    <row r="12" ht="12.8" customHeight="1" s="11">
+      <c r="A12" s="16" t="n">
         <v>44867</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B12" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C12" s="13" t="inlineStr">
         <is>
           <t>papaya</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
+      <c r="D12" s="13" t="inlineStr">
         <is>
           <t>Fiji</t>
         </is>
       </c>
-      <c r="E11" s="11" t="inlineStr">
+      <c r="E12" s="17" t="inlineStr">
         <is>
           <t>salmon</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" s="7">
-      <c r="A12" s="10" t="n">
+    <row r="13" ht="12.8" customHeight="1" s="11">
+      <c r="A13" s="16" t="n">
         <v>44868</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B13" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="inlineStr">
+      <c r="C13" s="18" t="inlineStr">
         <is>
           <t>plum</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
+      <c r="D13" s="13" t="inlineStr">
         <is>
           <t>Alabama</t>
         </is>
       </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="E13" s="13" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="12.8" customHeight="1" s="7">
-      <c r="A13" s="10" t="n">
+    <row r="14" ht="12.8" customHeight="1" s="11">
+      <c r="A14" s="16" t="n">
         <v>44870</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B14" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C14" s="13" t="inlineStr">
         <is>
           <t>banana</t>
         </is>
       </c>
-      <c r="D13" s="9" t="inlineStr">
+      <c r="D14" s="13" t="inlineStr">
         <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="E13" s="9" t="inlineStr">
+      <c r="E14" s="13" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="12.8" customHeight="1" s="7">
-      <c r="A14" s="10" t="n">
+    <row r="15" ht="12.8" customHeight="1" s="11">
+      <c r="A15" s="16" t="n">
         <v>44870</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B15" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="C15" s="13" t="inlineStr">
         <is>
           <t>pineapple</t>
         </is>
       </c>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="D15" s="13" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="E14" s="9" t="inlineStr">
+      <c r="E15" s="13" t="inlineStr">
         <is>
           <t>green-yellow</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="12.8" customHeight="1" s="7">
-      <c r="A15" s="10" t="n">
+    <row r="16" ht="12.8" customHeight="1" s="11">
+      <c r="A16" s="16" t="n">
         <v>44871</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B16" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="C16" s="13" t="inlineStr">
         <is>
           <t>tangerine</t>
         </is>
       </c>
-      <c r="D15" s="9" t="inlineStr">
+      <c r="D16" s="13" t="inlineStr">
         <is>
           <t>California</t>
         </is>
       </c>
-      <c r="E15" s="9" t="inlineStr">
+      <c r="E16" s="13" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="12.8" customHeight="1" s="7">
-      <c r="A16" s="10" t="n">
+    <row r="17" ht="12.8" customHeight="1" s="11">
+      <c r="A17" s="16" t="n">
         <v>44872</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B17" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="9" t="inlineStr">
+      <c r="C17" s="13" t="inlineStr">
         <is>
           <t>persimmon</t>
         </is>
       </c>
-      <c r="D16" s="9" t="inlineStr">
+      <c r="D17" s="13" t="inlineStr">
         <is>
           <t>Iran</t>
         </is>
       </c>
-      <c r="E16" s="9" t="inlineStr">
+      <c r="E17" s="13" t="inlineStr">
         <is>
           <t>deep orange</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="12.8" customHeight="1" s="7">
-      <c r="A17" s="10" t="n">
+    <row r="18" ht="12.8" customHeight="1" s="11">
+      <c r="A18" s="16" t="n">
         <v>44885</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B18" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="9" t="inlineStr">
+      <c r="C18" s="13" t="inlineStr">
         <is>
           <t>coconut</t>
         </is>
       </c>
-      <c r="D17" s="9" t="inlineStr">
+      <c r="D18" s="13" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="E17" s="9" t="inlineStr">
+      <c r="E18" s="13" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="12.8" customHeight="1" s="7">
-      <c r="A18" s="10" t="n">
+    <row r="19" ht="12.8" customHeight="1" s="11">
+      <c r="A19" s="16" t="n">
         <v>44886</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B19" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="9" t="inlineStr">
+      <c r="C19" s="13" t="inlineStr">
         <is>
           <t>dried mango</t>
         </is>
       </c>
-      <c r="D18" s="9" t="inlineStr">
+      <c r="D19" s="13" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="E18" s="13" t="inlineStr">
+      <c r="E19" s="19" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="12.8" customHeight="1" s="7"/>
-    <row r="20" ht="12.8" customHeight="1" s="7">
-      <c r="A20" s="9" t="inlineStr">
+    <row r="20" ht="12.8" customHeight="1" s="11"/>
+    <row r="21" ht="12.8" customHeight="1" s="11">
+      <c r="A21" s="13" t="inlineStr">
         <is>
           <t>Trailing row here</t>
         </is>

--- a/test1merge.xlsx
+++ b/test1merge.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1-Merged" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -110,7 +110,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -121,9 +121,6 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -530,370 +527,360 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="21:21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="11">
-      <c r="A1" s="12" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="10">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Example TableOld</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="11">
-      <c r="A2" s="13" t="inlineStr">
+    <row r="2" ht="12.8" customHeight="1" s="10">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>Diff test:</t>
         </is>
       </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="11">
-      <c r="A3" s="13" t="inlineStr">
+    <row r="3" ht="12.8" customHeight="1" s="10">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>Ignore test:</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --ignore Color test1old.xlsx test1new.xlsx --out test1ignore.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="11">
-      <c r="A4" s="14" t="inlineStr">
+    <row r="4" ht="12.8" customHeight="1" s="10">
+      <c r="A4" s="13" t="inlineStr">
         <is>
           <t>Merge test:</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --merge Color test1old.xlsx test1new.xlsx --out test1merge.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="11">
-      <c r="A5" s="13" t="inlineStr">
+    <row r="5" ht="12.8" customHeight="1" s="10">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>oldAppend test:</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --oldAppend test1old.xlsx test1new.xlsx --out test1oldAppend.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="12.8" customHeight="1" s="11">
-      <c r="A6" s="15" t="inlineStr">
+    <row r="6" ht="12.8" customHeight="1" s="10">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>newAppend test:</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --newAppend test1old.xlsx test1new.xlsx --out test1newAppend.xlsx</t>
         </is>
       </c>
     </row>
     <row r="7"/>
-    <row r="8" ht="12.8" customHeight="1" s="11">
-      <c r="A8" s="13" t="inlineStr">
+    <row r="8" ht="12.8" customHeight="1" s="10">
+      <c r="A8" s="12" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B8" s="13" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="C8" s="12" t="inlineStr">
         <is>
           <t>Fruit</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
         <is>
           <t>Origin</t>
         </is>
       </c>
-      <c r="E8" s="13" t="inlineStr">
+      <c r="E8" s="12" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="11">
-      <c r="A9" s="16" t="n">
+    <row r="9" ht="12.8" customHeight="1" s="10">
+      <c r="A9" s="15" t="n">
         <v>44866</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="inlineStr">
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>apricot</t>
         </is>
       </c>
-      <c r="D9" s="13" t="inlineStr">
+      <c r="D9" s="12" t="inlineStr">
         <is>
           <t>Washington</t>
         </is>
       </c>
-      <c r="E9" s="13" t="inlineStr">
-        <is>
-          <t>red-orange</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" s="11">
-      <c r="A10" s="16" t="n">
+      <c r="E9" s="16" t="inlineStr"/>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="10">
+      <c r="A10" s="15" t="n">
         <v>44866</v>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="inlineStr">
+      <c r="C10" s="12" t="inlineStr">
         <is>
           <t>apple</t>
         </is>
       </c>
-      <c r="D10" s="13" t="inlineStr">
+      <c r="D10" s="12" t="inlineStr">
         <is>
           <t>Maine</t>
         </is>
       </c>
-      <c r="E10" s="13" t="inlineStr">
+      <c r="E10" s="12" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" s="11">
-      <c r="A11" s="16" t="n">
+    <row r="11" ht="12.8" customHeight="1" s="10">
+      <c r="A11" s="15" t="n">
         <v>44867</v>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="inlineStr">
+      <c r="C11" s="12" t="inlineStr">
         <is>
           <t>peach</t>
         </is>
       </c>
-      <c r="D11" s="13" t="inlineStr">
+      <c r="D11" s="12" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>yellow-pink</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" s="11">
-      <c r="A12" s="16" t="n">
+    <row r="12" ht="12.8" customHeight="1" s="10">
+      <c r="A12" s="15" t="n">
         <v>44867</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="C12" s="13" t="inlineStr">
+      <c r="C12" s="12" t="inlineStr">
         <is>
           <t>papaya</t>
         </is>
       </c>
-      <c r="D12" s="13" t="inlineStr">
+      <c r="D12" s="12" t="inlineStr">
         <is>
           <t>Fiji</t>
         </is>
       </c>
-      <c r="E12" s="17" t="inlineStr">
+      <c r="E12" s="16" t="inlineStr">
         <is>
           <t>salmon</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="12.8" customHeight="1" s="11">
-      <c r="A13" s="16" t="n">
+    <row r="13" ht="12.8" customHeight="1" s="10">
+      <c r="A13" s="15" t="n">
         <v>44868</v>
       </c>
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="C13" s="18" t="inlineStr">
+      <c r="C13" s="17" t="inlineStr">
         <is>
           <t>plum</t>
         </is>
       </c>
-      <c r="D13" s="13" t="inlineStr">
+      <c r="D13" s="12" t="inlineStr">
         <is>
           <t>Alabama</t>
         </is>
       </c>
-      <c r="E13" s="13" t="inlineStr">
+      <c r="E13" s="12" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="12.8" customHeight="1" s="11">
-      <c r="A14" s="16" t="n">
+    <row r="14" ht="12.8" customHeight="1" s="10">
+      <c r="A14" s="15" t="n">
         <v>44870</v>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="inlineStr">
+      <c r="C14" s="12" t="inlineStr">
         <is>
           <t>banana</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
+      <c r="D14" s="12" t="inlineStr">
         <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="E14" s="13" t="inlineStr">
+      <c r="E14" s="12" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="12.8" customHeight="1" s="11">
-      <c r="A15" s="16" t="n">
+    <row r="15" ht="12.8" customHeight="1" s="10">
+      <c r="A15" s="15" t="n">
         <v>44870</v>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="C15" s="13" t="inlineStr">
+      <c r="C15" s="12" t="inlineStr">
         <is>
           <t>pineapple</t>
         </is>
       </c>
-      <c r="D15" s="13" t="inlineStr">
+      <c r="D15" s="12" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="E15" s="13" t="inlineStr">
+      <c r="E15" s="12" t="inlineStr">
         <is>
           <t>green-yellow</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="12.8" customHeight="1" s="11">
-      <c r="A16" s="16" t="n">
+    <row r="16" ht="12.8" customHeight="1" s="10">
+      <c r="A16" s="15" t="n">
         <v>44871</v>
       </c>
-      <c r="B16" s="13" t="n">
+      <c r="B16" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="C16" s="13" t="inlineStr">
+      <c r="C16" s="12" t="inlineStr">
         <is>
           <t>tangerine</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>California</t>
         </is>
       </c>
-      <c r="E16" s="13" t="inlineStr">
+      <c r="E16" s="12" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="12.8" customHeight="1" s="11">
-      <c r="A17" s="16" t="n">
+    <row r="17" ht="12.8" customHeight="1" s="10">
+      <c r="A17" s="15" t="n">
         <v>44872</v>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="C17" s="13" t="inlineStr">
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>persimmon</t>
         </is>
       </c>
-      <c r="D17" s="13" t="inlineStr">
+      <c r="D17" s="12" t="inlineStr">
         <is>
           <t>Iran</t>
         </is>
       </c>
-      <c r="E17" s="13" t="inlineStr">
+      <c r="E17" s="12" t="inlineStr">
         <is>
           <t>deep orange</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="12.8" customHeight="1" s="11">
-      <c r="A18" s="16" t="n">
+    <row r="18" ht="12.8" customHeight="1" s="10">
+      <c r="A18" s="15" t="n">
         <v>44885</v>
       </c>
-      <c r="B18" s="13" t="n">
+      <c r="B18" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="13" t="inlineStr">
+      <c r="C18" s="12" t="inlineStr">
         <is>
           <t>coconut</t>
         </is>
       </c>
-      <c r="D18" s="13" t="inlineStr">
+      <c r="D18" s="12" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="E18" s="13" t="inlineStr">
+      <c r="E18" s="12" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="12.8" customHeight="1" s="11">
-      <c r="A19" s="16" t="n">
+    <row r="19" ht="12.8" customHeight="1" s="10">
+      <c r="A19" s="15" t="n">
         <v>44886</v>
       </c>
-      <c r="B19" s="13" t="n">
+      <c r="B19" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="13" t="inlineStr">
+      <c r="C19" s="12" t="inlineStr">
         <is>
           <t>dried mango</t>
         </is>
       </c>
-      <c r="D19" s="13" t="inlineStr">
+      <c r="D19" s="12" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="E19" s="19" t="inlineStr">
+      <c r="E19" s="18" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="12.8" customHeight="1" s="11"/>
-    <row r="21" ht="12.8" customHeight="1" s="11">
-      <c r="A21" s="13" t="inlineStr">
-        <is>
-          <t>Trailing row here</t>
-        </is>
-      </c>
-    </row>
+    <row r="20" ht="12.8" customHeight="1" s="10"/>
+    <row r="21" ht="12.8" customHeight="1" s="10"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
